--- a/DU1AMKT.xlsx
+++ b/DU1AMKT.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t/>
   </si>
   <si>
-    <t>20139359</t>
-  </si>
-  <si>
-    <t>KIT KAT CHO KLG 220</t>
+    <t>10007973</t>
+  </si>
+  <si>
+    <t>BUAVITA MANGGA 245ML</t>
   </si>
   <si>
     <t>DU1AMKT</t>
@@ -31,10 +31,10 @@
     <t>RT,(E-1B)</t>
   </si>
   <si>
-    <t>10004906</t>
-  </si>
-  <si>
-    <t>BEAR BRAND STERIL189</t>
+    <t>10007970</t>
+  </si>
+  <si>
+    <t>BUAVITA JAMBU SL 245</t>
   </si>
   <si>
     <t>2</t>
@@ -58,16 +58,22 @@
     <t>4</t>
   </si>
   <si>
-    <t>20057867</t>
-  </si>
-  <si>
-    <t>HYDRO COCO 500ML</t>
+    <t>20014069</t>
+  </si>
+  <si>
+    <t>FF UHT FULL CRM 946</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>RT,(E-2B)</t>
+    <t>20019674</t>
+  </si>
+  <si>
+    <t>YOU C1000 ORG WTR500</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -586,7 +592,27 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
